--- a/class_diagram/after/repository/user/面談予約システム_クラス図 (repository.user).xlsx
+++ b/class_diagram/after/repository/user/面談予約システム_クラス図 (repository.user).xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\java_ys_sys\meeting_reservation_system\class_diagram\after\repository\user\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AE0954C-1A16-4E2C-97AB-2B8704B2D2A0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF85EA6B-E2FF-449B-9F04-77809DBFBD2A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="UserRepository" sheetId="1" r:id="rId1"/>
+    <sheet name="UsersRepository" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -210,7 +210,7 @@
                 </a:schemeClr>
               </a:solidFill>
             </a:rPr>
-            <a:t>UserRepository</a:t>
+            <a:t>UsersRepository</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1340,7 +1340,7 @@
   <dimension ref="F20:I105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L34" sqref="L34"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/class_diagram/after/repository/user/面談予約システム_クラス図 (repository.user).xlsx
+++ b/class_diagram/after/repository/user/面談予約システム_クラス図 (repository.user).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20357"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20407"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\java_ys_sys\meeting_reservation_system\class_diagram\after\repository\user\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\java_mon\meeting_reservation_system\class_diagram\after\repository\user\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF85EA6B-E2FF-449B-9F04-77809DBFBD2A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A358412-D0FA-4A99-9841-DFE97955E2BD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UsersRepository" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>--r Optional&lt;UserInfo&gt;</a:t>
+            <a:t>--r Optional&lt;User&gt;</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -601,7 +601,7 @@
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>--r Optional&lt;UserInfo&gt;</a:t>
+            <a:t>--r Optional&lt;User&gt;</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -627,8 +627,8 @@
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>276224</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -646,8 +646,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7219949" y="4791075"/>
-          <a:ext cx="2657475" cy="723900"/>
+          <a:off x="7067549" y="4600575"/>
+          <a:ext cx="2596515" cy="1038225"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1339,33 +1339,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="F20:I105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="7:8" x14ac:dyDescent="0.45">
       <c r="H20" s="3"/>
     </row>
-    <row r="24" spans="7:8" x14ac:dyDescent="0.4">
+    <row r="24" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G24" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="8:9" x14ac:dyDescent="0.45">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="36" spans="8:9" x14ac:dyDescent="0.45">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
+    <row r="105" spans="6:7" ht="28.8" x14ac:dyDescent="0.7">
       <c r="F105" s="5"/>
       <c r="G105" s="2"/>
     </row>

--- a/class_diagram/after/repository/user/面談予約システム_クラス図 (repository.user).xlsx
+++ b/class_diagram/after/repository/user/面談予約システム_クラス図 (repository.user).xlsx
@@ -1,24 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20407"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29512"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\java_mon\meeting_reservation_system\class_diagram\after\repository\user\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A358412-D0FA-4A99-9841-DFE97955E2BD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{1A358412-D0FA-4A99-9841-DFE97955E2BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BD0A470F-AF90-4C4E-8487-AA9E85F70534}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UsersRepository" sheetId="1" r:id="rId1"/>
+    <sheet name="ReservationsRepository" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -27,6 +39,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
+    <t>--r 返り値のデータ型</t>
+  </si>
+  <si>
     <t xml:space="preserve"> フィールド</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -34,15 +49,12 @@
     <t xml:space="preserve"> メソッド</t>
     <phoneticPr fontId="2"/>
   </si>
-  <si>
-    <t>--r 返り値のデータ型</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1012,6 +1024,539 @@
             </a:solidFill>
             <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
           </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="角丸四角形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9063633C-D615-88C4-F1F0-C1C0D6BCA564}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1590675" y="1447800"/>
+          <a:ext cx="9772650" cy="8439150"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFEBC7"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="3600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>ReservationsRepository</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="四角形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{499DC2E6-D9FB-7E86-6765-6254A76A8BFF}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{9063633C-D615-88C4-F1F0-C1C0D6BCA564}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2028825" y="2638425"/>
+          <a:ext cx="2886075" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="91A5C4"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>findByUserId( id : int)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>--r List&lt;Reservation&gt;</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="四角形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04AC2329-1005-49DA-9266-339E5DAC4F9B}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{499DC2E6-D9FB-7E86-6765-6254A76A8BFF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5181600" y="2638425"/>
+          <a:ext cx="2886075" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="91A5C4"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>findByInterviewerId( id : int)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>--r List&lt;Reservation&gt;</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="四角形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B420625-E664-466B-B60E-88FC4CC1A51B}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{04AC2329-1005-49DA-9266-339E5DAC4F9B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8343900" y="2638425"/>
+          <a:ext cx="2886075" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="91A5C4"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>findById( id : int)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>--r Optional&lt;Reservation&gt;</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1339,33 +1884,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="F20:I105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView topLeftCell="G3" workbookViewId="0">
+      <selection activeCell="R33" sqref="R33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
-    <row r="20" spans="7:8" x14ac:dyDescent="0.45">
+    <row r="20" spans="7:8">
       <c r="H20" s="3"/>
     </row>
-    <row r="24" spans="7:8" x14ac:dyDescent="0.45">
+    <row r="24" spans="7:8">
       <c r="G24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="8:9">
+      <c r="H34" s="4"/>
+      <c r="I34" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="8:9">
+      <c r="H36" s="1"/>
+      <c r="I36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="8:9" x14ac:dyDescent="0.45">
-      <c r="H34" s="4"/>
-      <c r="I34" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="8:9" x14ac:dyDescent="0.45">
-      <c r="H36" s="1"/>
-      <c r="I36" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="6:7" ht="28.8" x14ac:dyDescent="0.7">
+    <row r="105" spans="6:7" ht="28.9">
       <c r="F105" s="5"/>
       <c r="G105" s="2"/>
     </row>
@@ -1375,4 +1920,19 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3BBEFB5-4788-43B2-9194-6294F6FBC4A4}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/class_diagram/after/repository/user/面談予約システム_クラス図 (repository.user).xlsx
+++ b/class_diagram/after/repository/user/面談予約システム_クラス図 (repository.user).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\java_mon\meeting_reservation_system\class_diagram\after\repository\user\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{1A358412-D0FA-4A99-9841-DFE97955E2BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BD0A470F-AF90-4C4E-8487-AA9E85F70534}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{1A358412-D0FA-4A99-9841-DFE97955E2BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{521BF2D9-C94E-47CF-82F0-BD4A9A3B0522}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1112,16 +1112,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:colOff>323850</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1139,7 +1139,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2028825" y="2638425"/>
+          <a:off x="2238375" y="2733675"/>
           <a:ext cx="2886075" cy="762000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1179,7 +1179,7 @@
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>findByUserId( id : int)</a:t>
+            <a:t>findByUserId( userId : int)</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1200,16 +1200,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1227,8 +1227,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5181600" y="2638425"/>
-          <a:ext cx="2886075" cy="762000"/>
+          <a:off x="2247900" y="4095750"/>
+          <a:ext cx="5200650" cy="762000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1353,7 +1353,17 @@
           </a:lvl9pPr>
         </a:lstStyle>
         <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
           <a:r>
             <a:rPr lang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
@@ -1361,7 +1371,7 @@
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>findByInterviewerId( id : int)</a:t>
+            <a:t>findByInterviewerName( interviewerName : String )</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1926,8 +1936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3BBEFB5-4788-43B2-9194-6294F6FBC4A4}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U33" sqref="U33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>

--- a/class_diagram/after/repository/user/面談予約システム_クラス図 (repository.user).xlsx
+++ b/class_diagram/after/repository/user/面談予約システム_クラス図 (repository.user).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20357"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\java_mon\meeting_reservation_system\class_diagram\after\repository\user\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\javamonsys\meeting_reservation_system\class_diagram\after\repository\user\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{1A358412-D0FA-4A99-9841-DFE97955E2BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{521BF2D9-C94E-47CF-82F0-BD4A9A3B0522}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D83E3617-6321-4509-B277-FBDE620C2FD3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UsersRepository" sheetId="1" r:id="rId1"/>
@@ -26,10 +26,10 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -54,7 +54,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1384,188 +1384,6 @@
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
             <a:t>--r List&lt;Reservation&gt;</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="四角形 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B420625-E664-466B-B60E-88FC4CC1A51B}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{04AC2329-1005-49DA-9266-339E5DAC4F9B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8343900" y="2638425"/>
-          <a:ext cx="2886075" cy="762000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="91A5C4"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>findById( id : int)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>--r Optional&lt;Reservation&gt;</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1898,29 +1716,29 @@
       <selection activeCell="R33" sqref="R33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="20" spans="7:8">
+    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
       <c r="H20" s="3"/>
     </row>
-    <row r="24" spans="7:8">
+    <row r="24" spans="7:8" x14ac:dyDescent="0.4">
       <c r="G24" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="8:9">
+    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="8:9">
+    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="6:7" ht="28.9">
+    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
       <c r="F105" s="5"/>
       <c r="G105" s="2"/>
     </row>
@@ -1937,11 +1755,12 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U33" sqref="U33"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData/>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/class_diagram/after/repository/user/面談予約システム_クラス図 (repository.user).xlsx
+++ b/class_diagram/after/repository/user/面談予約システム_クラス図 (repository.user).xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\javamonsys\meeting_reservation_system\class_diagram\after\repository\user\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D83E3617-6321-4509-B277-FBDE620C2FD3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48CC86F0-BE08-4B0F-82D3-721C83955A0E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UsersRepository" sheetId="1" r:id="rId1"/>
-    <sheet name="ReservationsRepository" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -231,206 +230,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>352424</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>266699</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="四角形 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9CB05A9-72F4-4FC7-987D-7049D996FD44}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{A30E5828-D3E3-4D9B-8009-C2D554F4F31D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7210424" y="3876675"/>
-          <a:ext cx="2657475" cy="723900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="91A5C4"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>findById(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t> id : int)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>--r Optional&lt;User&gt;</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="ctr"/>
-          <a:endParaRPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>9524</xdr:colOff>
       <xdr:row>16</xdr:row>
@@ -1024,367 +823,6 @@
             </a:solidFill>
             <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
           </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="角丸四角形 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9063633C-D615-88C4-F1F0-C1C0D6BCA564}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1590675" y="1447800"/>
-          <a:ext cx="9772650" cy="8439150"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFEBC7"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="3600" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>ReservationsRepository</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="四角形 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{499DC2E6-D9FB-7E86-6765-6254A76A8BFF}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{9063633C-D615-88C4-F1F0-C1C0D6BCA564}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2238375" y="2733675"/>
-          <a:ext cx="2886075" cy="762000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="91A5C4"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>findByUserId( userId : int)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>--r List&lt;Reservation&gt;</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="四角形 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04AC2329-1005-49DA-9266-339E5DAC4F9B}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{499DC2E6-D9FB-7E86-6765-6254A76A8BFF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2247900" y="4095750"/>
-          <a:ext cx="5200650" cy="762000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="91A5C4"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>findByInterviewerName( interviewerName : String )</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>--r List&lt;Reservation&gt;</a:t>
-          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1712,8 +1150,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="F20:I105"/>
   <sheetViews>
-    <sheetView topLeftCell="G3" workbookViewId="0">
-      <selection activeCell="R33" sqref="R33"/>
+    <sheetView tabSelected="1" topLeftCell="K9" workbookViewId="0">
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1748,20 +1186,4 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3BBEFB5-4788-43B2-9194-6294F6FBC4A4}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData/>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/class_diagram/after/repository/user/面談予約システム_クラス図 (repository.user).xlsx
+++ b/class_diagram/after/repository/user/面談予約システム_クラス図 (repository.user).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20357"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\javamonsys\meeting_reservation_system\class_diagram\after\repository\user\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48CC86F0-BE08-4B0F-82D3-721C83955A0E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{48CC86F0-BE08-4B0F-82D3-721C83955A0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7E1F8A7C-2301-4330-9F89-A13CD37E5525}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,10 +25,10 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -53,7 +53,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -823,6 +823,208 @@
             </a:solidFill>
             <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
           </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="四角形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBDE04CC-4A09-48B8-844E-799CF61A0FF3}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{581FC6E5-5897-4063-B5EB-CF51F03706AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7219950" y="3714750"/>
+          <a:ext cx="2914650" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="91A5C4"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>existsByName( name : String )</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>--r Boolean</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1151,32 +1353,32 @@
   <dimension ref="F20:I105"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K9" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+      <selection activeCell="N35" sqref="N35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="7:8">
       <c r="H20" s="3"/>
     </row>
-    <row r="24" spans="7:8" x14ac:dyDescent="0.4">
+    <row r="24" spans="7:8">
       <c r="G24" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="8:9">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="36" spans="8:9">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
+    <row r="105" spans="6:7" ht="30">
       <c r="F105" s="5"/>
       <c r="G105" s="2"/>
     </row>
